--- a/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9747004086705773</v>
+        <v>0.9824983919318472</v>
       </c>
       <c r="D2">
-        <v>0.9982674319577741</v>
+        <v>1.004473823379318</v>
       </c>
       <c r="E2">
-        <v>0.9840400059300546</v>
+        <v>0.9913558853163591</v>
       </c>
       <c r="F2">
-        <v>0.9501605803888291</v>
+        <v>0.9583996194030856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035638600532799</v>
+        <v>1.038787124464537</v>
       </c>
       <c r="J2">
-        <v>0.9976650866298072</v>
+        <v>1.005215478444011</v>
       </c>
       <c r="K2">
-        <v>1.009750957095235</v>
+        <v>1.015871180631814</v>
       </c>
       <c r="L2">
-        <v>0.9957262597515748</v>
+        <v>1.002936974633783</v>
       </c>
       <c r="M2">
-        <v>0.9623608790805993</v>
+        <v>0.9704706364341594</v>
       </c>
       <c r="N2">
-        <v>0.9990818854866064</v>
+        <v>1.006642999723229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9832098411220238</v>
+        <v>0.9878983401614984</v>
       </c>
       <c r="D3">
-        <v>1.004784017549423</v>
+        <v>1.008521553905245</v>
       </c>
       <c r="E3">
-        <v>0.99113987910238</v>
+        <v>0.9957021634579195</v>
       </c>
       <c r="F3">
-        <v>0.9616936966581028</v>
+        <v>0.9666183304517423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03843958835693</v>
+        <v>1.040337934031675</v>
       </c>
       <c r="J3">
-        <v>1.004168928621613</v>
+        <v>1.00872443475585</v>
       </c>
       <c r="K3">
-        <v>1.015356049762516</v>
+        <v>1.019046548714747</v>
       </c>
       <c r="L3">
-        <v>1.001887396322199</v>
+        <v>1.006390332887396</v>
       </c>
       <c r="M3">
-        <v>0.9728413690470334</v>
+        <v>0.9776969380758045</v>
       </c>
       <c r="N3">
-        <v>1.005594963680042</v>
+        <v>1.010156939155513</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9885092613779387</v>
+        <v>0.9913001260195583</v>
       </c>
       <c r="D4">
-        <v>1.008843339074174</v>
+        <v>1.011070299086253</v>
       </c>
       <c r="E4">
-        <v>0.9955679870370383</v>
+        <v>0.9984465369651299</v>
       </c>
       <c r="F4">
-        <v>0.9688607376299657</v>
+        <v>0.9717819212431742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040165407237463</v>
+        <v>1.041297388746078</v>
       </c>
       <c r="J4">
-        <v>1.008211539784598</v>
+        <v>1.010929024306509</v>
       </c>
       <c r="K4">
-        <v>1.018836191732911</v>
+        <v>1.021036926489332</v>
       </c>
       <c r="L4">
-        <v>1.005720198518708</v>
+        <v>1.008563747147023</v>
       </c>
       <c r="M4">
-        <v>0.9793501057679731</v>
+        <v>0.9822332824180402</v>
       </c>
       <c r="N4">
-        <v>1.009643315814572</v>
+        <v>1.012364659476204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9906911152886471</v>
+        <v>0.9927091547051577</v>
       </c>
       <c r="D5">
-        <v>1.010514704203046</v>
+        <v>1.01212562712883</v>
       </c>
       <c r="E5">
-        <v>0.9973925532594027</v>
+        <v>0.9995847354302727</v>
       </c>
       <c r="F5">
-        <v>0.9718085532444879</v>
+        <v>0.9739178573984977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040871419199684</v>
+        <v>1.041690531309053</v>
       </c>
       <c r="J5">
-        <v>1.009874041376668</v>
+        <v>1.01184072632707</v>
       </c>
       <c r="K5">
-        <v>1.02026640116786</v>
+        <v>1.021858889915439</v>
       </c>
       <c r="L5">
-        <v>1.007297156977081</v>
+        <v>1.009463448819239</v>
       </c>
       <c r="M5">
-        <v>0.9820260817502448</v>
+        <v>0.9841088110835687</v>
       </c>
       <c r="N5">
-        <v>1.011308178349594</v>
+        <v>1.013277656218208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9910548531311426</v>
+        <v>0.9929445289638145</v>
       </c>
       <c r="D6">
-        <v>1.010793338542655</v>
+        <v>1.012301892626051</v>
       </c>
       <c r="E6">
-        <v>0.997696809278301</v>
+        <v>0.9997749532531274</v>
       </c>
       <c r="F6">
-        <v>0.9722998300530723</v>
+        <v>0.9742745065095966</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040988849619796</v>
+        <v>1.041755951874099</v>
       </c>
       <c r="J6">
-        <v>1.010151084671069</v>
+        <v>1.011992937991762</v>
       </c>
       <c r="K6">
-        <v>1.02050467539324</v>
+        <v>1.021996050478328</v>
       </c>
       <c r="L6">
-        <v>1.007559987882199</v>
+        <v>1.009613709221018</v>
       </c>
       <c r="M6">
-        <v>0.9824719888267893</v>
+        <v>0.9844219216430911</v>
       </c>
       <c r="N6">
-        <v>1.011585615077251</v>
+        <v>1.013430084040923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9885385919526368</v>
+        <v>0.9913190350675303</v>
       </c>
       <c r="D7">
-        <v>1.008865807053996</v>
+        <v>1.011084463068433</v>
       </c>
       <c r="E7">
-        <v>0.9955925090280311</v>
+        <v>0.9984618057437896</v>
       </c>
       <c r="F7">
-        <v>0.9689003758514144</v>
+        <v>0.9718105959164718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040174916212361</v>
+        <v>1.041302681648268</v>
       </c>
       <c r="J7">
-        <v>1.008233896324225</v>
+        <v>1.010941265014751</v>
       </c>
       <c r="K7">
-        <v>1.018855428480179</v>
+        <v>1.021047966961534</v>
       </c>
       <c r="L7">
-        <v>1.005741401817628</v>
+        <v>1.008575823215881</v>
       </c>
       <c r="M7">
-        <v>0.9793860930299823</v>
+        <v>0.9822584649524124</v>
       </c>
       <c r="N7">
-        <v>1.00966570410305</v>
+        <v>1.012376917567656</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9776212431976391</v>
+        <v>0.9843430910741801</v>
       </c>
       <c r="D8">
-        <v>1.000503917055985</v>
+        <v>1.005856783656627</v>
       </c>
       <c r="E8">
-        <v>0.9864755529554473</v>
+        <v>0.9928392606174415</v>
       </c>
       <c r="F8">
-        <v>0.9541230506966638</v>
+        <v>0.9612105031938655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036603915164815</v>
+        <v>1.039320547937275</v>
       </c>
       <c r="J8">
-        <v>0.9998991392366219</v>
+        <v>1.006415425176849</v>
       </c>
       <c r="K8">
-        <v>1.011677066788784</v>
+        <v>1.016958001252022</v>
       </c>
       <c r="L8">
-        <v>0.9978418924492016</v>
+        <v>1.004117110366441</v>
       </c>
       <c r="M8">
-        <v>0.9659625296250374</v>
+        <v>0.9729428655096571</v>
       </c>
       <c r="N8">
-        <v>1.001319110704372</v>
+        <v>1.007844650518063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9566189409479738</v>
+        <v>0.971293001004245</v>
       </c>
       <c r="D9">
-        <v>0.9844343226782782</v>
+        <v>0.996071763991459</v>
       </c>
       <c r="E9">
-        <v>0.9689971726079736</v>
+        <v>0.9823751221978807</v>
       </c>
       <c r="F9">
-        <v>0.9255249336154895</v>
+        <v>0.9412417868004209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029584942693967</v>
+        <v>1.035474498238293</v>
       </c>
       <c r="J9">
-        <v>0.9838024222180154</v>
+        <v>0.9979018573204217</v>
       </c>
       <c r="K9">
-        <v>0.9977850935855246</v>
+        <v>1.009228897230331</v>
       </c>
       <c r="L9">
-        <v>0.9826141078681618</v>
+        <v>0.9957607732439175</v>
       </c>
       <c r="M9">
-        <v>0.939954120990883</v>
+        <v>0.955365991636234</v>
       </c>
       <c r="N9">
-        <v>0.9851995345012798</v>
+        <v>0.9993189924187595</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9411278226210903</v>
+        <v>0.9620055060381081</v>
       </c>
       <c r="D10">
-        <v>0.9726068804259649</v>
+        <v>0.9891104579087694</v>
       </c>
       <c r="E10">
-        <v>0.9561575997139234</v>
+        <v>0.9749690902053354</v>
       </c>
       <c r="F10">
-        <v>0.9042382594770704</v>
+        <v>0.9268927145751212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024311693900565</v>
+        <v>1.032647892075467</v>
       </c>
       <c r="J10">
-        <v>0.9718889335688937</v>
+        <v>0.9918121102211591</v>
       </c>
       <c r="K10">
-        <v>0.9874889897496828</v>
+        <v>1.003679149853383</v>
       </c>
       <c r="L10">
-        <v>0.9713662843343106</v>
+        <v>0.9898054867083569</v>
       </c>
       <c r="M10">
-        <v>0.9205822865514545</v>
+        <v>0.9427205439410544</v>
       </c>
       <c r="N10">
-        <v>0.9732691273317803</v>
+        <v>0.9932205971801125</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9339795706480125</v>
+        <v>0.9578245307802987</v>
       </c>
       <c r="D11">
-        <v>0.9671590099343106</v>
+        <v>0.9859787674879061</v>
       </c>
       <c r="E11">
-        <v>0.9502482939019324</v>
+        <v>0.9716459052617427</v>
       </c>
       <c r="F11">
-        <v>0.894346688174011</v>
+        <v>0.920388804186052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021857180707141</v>
+        <v>1.031355211486408</v>
       </c>
       <c r="J11">
-        <v>0.9663823762062623</v>
+        <v>0.9890635639215813</v>
       </c>
       <c r="K11">
-        <v>0.9827280223249917</v>
+        <v>1.001170038018913</v>
       </c>
       <c r="L11">
-        <v>0.9661736702155099</v>
+        <v>0.9871231078121927</v>
       </c>
       <c r="M11">
-        <v>0.9115799197937507</v>
+        <v>0.936986286638251</v>
       </c>
       <c r="N11">
-        <v>0.967754750026083</v>
+        <v>0.9904681476295267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9312488395894482</v>
+        <v>0.9562456323569112</v>
       </c>
       <c r="D12">
-        <v>0.9650797027591188</v>
+        <v>0.9847965729908841</v>
       </c>
       <c r="E12">
-        <v>0.9479934721952372</v>
+        <v>0.9703926619495041</v>
       </c>
       <c r="F12">
-        <v>0.8905550299185873</v>
+        <v>0.9179248438441658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020916499193077</v>
+        <v>1.030864097966337</v>
       </c>
       <c r="J12">
-        <v>0.9642774563485876</v>
+        <v>0.9880245516496368</v>
       </c>
       <c r="K12">
-        <v>0.9809079598060867</v>
+        <v>1.000220960442636</v>
       </c>
       <c r="L12">
-        <v>0.9641897947698161</v>
+        <v>0.986109957571913</v>
       </c>
       <c r="M12">
-        <v>0.9081292993281802</v>
+        <v>0.9348136271080458</v>
       </c>
       <c r="N12">
-        <v>0.9656468409407729</v>
+        <v>0.9894276598409794</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9318381823040078</v>
+        <v>0.9565855171189001</v>
       </c>
       <c r="D13">
-        <v>0.9655283657223604</v>
+        <v>0.9850510376976559</v>
       </c>
       <c r="E13">
-        <v>0.9484799816595956</v>
+        <v>0.9706623646218396</v>
       </c>
       <c r="F13">
-        <v>0.8913739718310006</v>
+        <v>0.9184556274080867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021119649209286</v>
+        <v>1.030969950067738</v>
       </c>
       <c r="J13">
-        <v>0.9647317970947192</v>
+        <v>0.9882482641621969</v>
       </c>
       <c r="K13">
-        <v>0.9813008190090414</v>
+        <v>1.00042533377417</v>
       </c>
       <c r="L13">
-        <v>0.9646179599316829</v>
+        <v>0.9863280628681103</v>
       </c>
       <c r="M13">
-        <v>0.9088745686274807</v>
+        <v>0.9352816696387607</v>
       </c>
       <c r="N13">
-        <v>0.9661018269028775</v>
+        <v>0.9896516900509674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9337554502532026</v>
+        <v>0.9576945589213367</v>
       </c>
       <c r="D14">
-        <v>0.9669883142304286</v>
+        <v>0.9858814415008237</v>
       </c>
       <c r="E14">
-        <v>0.9500631782707304</v>
+        <v>0.9715427052130094</v>
       </c>
       <c r="F14">
-        <v>0.8940357724805265</v>
+        <v>0.9201861419989572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021780035874052</v>
+        <v>1.031314843243381</v>
       </c>
       <c r="J14">
-        <v>0.9662096451249719</v>
+        <v>0.9889780557805954</v>
       </c>
       <c r="K14">
-        <v>0.9825786688981974</v>
+        <v>1.001091942576439</v>
       </c>
       <c r="L14">
-        <v>0.966010850527677</v>
+        <v>0.9870397106611919</v>
       </c>
       <c r="M14">
-        <v>0.9112969636040009</v>
+        <v>0.936807589073678</v>
       </c>
       <c r="N14">
-        <v>0.9675817736468446</v>
+        <v>0.9903825180571726</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9349264163022329</v>
+        <v>0.9583743823617716</v>
       </c>
       <c r="D15">
-        <v>0.9678802287801601</v>
+        <v>0.9863905285774562</v>
       </c>
       <c r="E15">
-        <v>0.9510304631422273</v>
+        <v>0.9720825681079771</v>
       </c>
       <c r="F15">
-        <v>0.8956596787974528</v>
+        <v>0.9212458493830521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022182974562476</v>
+        <v>1.031525871747737</v>
       </c>
       <c r="J15">
-        <v>0.9671120624793746</v>
+        <v>0.9894252669881455</v>
       </c>
       <c r="K15">
-        <v>0.9833589467794188</v>
+        <v>1.001500362012316</v>
       </c>
       <c r="L15">
-        <v>0.9668615293434016</v>
+        <v>0.9874759159991536</v>
       </c>
       <c r="M15">
-        <v>0.9127748473217613</v>
+        <v>0.9377419764191174</v>
       </c>
       <c r="N15">
-        <v>0.9684854725373995</v>
+        <v>0.9908303643559332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9415921919510706</v>
+        <v>0.9622794636222424</v>
       </c>
       <c r="D16">
-        <v>0.9729610201811564</v>
+        <v>0.9893157162196461</v>
       </c>
       <c r="E16">
-        <v>0.9565418239795607</v>
+        <v>0.975187073361757</v>
       </c>
       <c r="F16">
-        <v>0.9048792253307166</v>
+        <v>0.9273178676761479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024470723391949</v>
+        <v>1.032732182871167</v>
       </c>
       <c r="J16">
-        <v>0.9722464692302143</v>
+        <v>0.9919920619439669</v>
       </c>
       <c r="K16">
-        <v>0.9877980860384565</v>
+        <v>1.003843342092468</v>
       </c>
       <c r="L16">
-        <v>0.9717035719987114</v>
+        <v>0.9899812219897206</v>
       </c>
       <c r="M16">
-        <v>0.9211656419478471</v>
+        <v>0.9430953416749988</v>
       </c>
       <c r="N16">
-        <v>0.9736271707347502</v>
+        <v>0.9934008044550069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9456494977309485</v>
+        <v>0.9646850297271932</v>
       </c>
       <c r="D17">
-        <v>0.9760563577193094</v>
+        <v>0.9911183010942225</v>
       </c>
       <c r="E17">
-        <v>0.9599006341247429</v>
+        <v>0.9771023733053843</v>
       </c>
       <c r="F17">
-        <v>0.9104715563432427</v>
+        <v>0.9310459099011882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025857851395986</v>
+        <v>1.033470045771223</v>
       </c>
       <c r="J17">
-        <v>0.9753693251535828</v>
+        <v>0.9935713792211854</v>
       </c>
       <c r="K17">
-        <v>0.9904976471529017</v>
+        <v>1.005283871669814</v>
       </c>
       <c r="L17">
-        <v>0.9746502819976638</v>
+        <v>0.9915241563687027</v>
       </c>
       <c r="M17">
-        <v>0.9262552900847218</v>
+        <v>0.9463815574538027</v>
       </c>
       <c r="N17">
-        <v>0.9767544614717261</v>
+        <v>0.9949823645439096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9479742794078209</v>
+        <v>0.9660729159280605</v>
       </c>
       <c r="D18">
-        <v>0.9778308279567234</v>
+        <v>0.9921584869049614</v>
       </c>
       <c r="E18">
-        <v>0.9618265965867421</v>
+        <v>0.9782084135574112</v>
       </c>
       <c r="F18">
-        <v>0.9136696725048041</v>
+        <v>0.9331926995465198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026650676436018</v>
+        <v>1.033893842166508</v>
       </c>
       <c r="J18">
-        <v>0.9771578257494687</v>
+        <v>0.9944818921126977</v>
       </c>
       <c r="K18">
-        <v>0.9920435265932925</v>
+        <v>1.006113961932079</v>
       </c>
       <c r="L18">
-        <v>0.9763384754749755</v>
+        <v>0.992414207565242</v>
       </c>
       <c r="M18">
-        <v>0.9291658594673363</v>
+        <v>0.9482736761167779</v>
       </c>
       <c r="N18">
-        <v>0.9785455019436023</v>
+        <v>0.9958941704681652</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9487601376320923</v>
+        <v>0.9665436197997952</v>
       </c>
       <c r="D19">
-        <v>0.9784308011536438</v>
+        <v>0.9925112956358435</v>
       </c>
       <c r="E19">
-        <v>0.962477870923184</v>
+        <v>0.9785836978378093</v>
       </c>
       <c r="F19">
-        <v>0.9147497600674936</v>
+        <v>0.9339201238750281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026918338828657</v>
+        <v>1.034037246457919</v>
       </c>
       <c r="J19">
-        <v>0.9777622559743863</v>
+        <v>0.9947905798017186</v>
       </c>
       <c r="K19">
-        <v>0.9925659251717799</v>
+        <v>1.006395313078344</v>
       </c>
       <c r="L19">
-        <v>0.9769091014130222</v>
+        <v>0.9927160446636588</v>
       </c>
       <c r="M19">
-        <v>0.9301488152850571</v>
+        <v>0.9489147624783038</v>
       </c>
       <c r="N19">
-        <v>0.9791507905287683</v>
+        <v>0.9962032965291112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9452185698394382</v>
+        <v>0.9644285249200526</v>
       </c>
       <c r="D20">
-        <v>0.9757275063318168</v>
+        <v>0.9909260714895056</v>
       </c>
       <c r="E20">
-        <v>0.9595437449780176</v>
+        <v>0.9768980396497805</v>
       </c>
       <c r="F20">
-        <v>0.9098782561415563</v>
+        <v>0.9306488230842026</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0257107292269</v>
+        <v>1.033391565641014</v>
       </c>
       <c r="J20">
-        <v>0.9750377341461969</v>
+        <v>0.9934030466555701</v>
       </c>
       <c r="K20">
-        <v>0.9902110217421398</v>
+        <v>1.005130373846601</v>
       </c>
       <c r="L20">
-        <v>0.974337334116249</v>
+        <v>0.9913596481331054</v>
       </c>
       <c r="M20">
-        <v>0.9257153264794695</v>
+        <v>0.9460315559570108</v>
       </c>
       <c r="N20">
-        <v>0.976422399567076</v>
+        <v>0.9948137929267432</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9331930336735826</v>
+        <v>0.9573687054397773</v>
       </c>
       <c r="D21">
-        <v>0.9665599948310419</v>
+        <v>0.9856374425234938</v>
       </c>
       <c r="E21">
-        <v>0.9495986848286241</v>
+        <v>0.9712839995662839</v>
       </c>
       <c r="F21">
-        <v>0.8932553308905914</v>
+        <v>0.9196779157369948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021586397675951</v>
+        <v>1.031213588599182</v>
       </c>
       <c r="J21">
-        <v>0.965776165568499</v>
+        <v>0.9887636607122536</v>
       </c>
       <c r="K21">
-        <v>0.98220385519431</v>
+        <v>1.000896124370826</v>
       </c>
       <c r="L21">
-        <v>0.9656022612395596</v>
+        <v>0.9868306222459169</v>
       </c>
       <c r="M21">
-        <v>0.91058670828724</v>
+        <v>0.9363594560442676</v>
       </c>
       <c r="N21">
-        <v>0.9671476784996803</v>
+        <v>0.9901678185232421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9251887245382179</v>
+        <v>0.9527789402758582</v>
       </c>
       <c r="D22">
-        <v>0.960469162679372</v>
+        <v>0.9822018964882441</v>
       </c>
       <c r="E22">
-        <v>0.9429947311479863</v>
+        <v>0.9676442740847894</v>
       </c>
       <c r="F22">
-        <v>0.8821130139558084</v>
+        <v>0.912498990443454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018823512055204</v>
+        <v>1.029780462361483</v>
       </c>
       <c r="J22">
-        <v>0.9596037156439774</v>
+        <v>0.9857413228958208</v>
       </c>
       <c r="K22">
-        <v>0.9768666266118499</v>
+        <v>0.9981343793220371</v>
       </c>
       <c r="L22">
-        <v>0.9597868690632151</v>
+        <v>0.9838851585772861</v>
       </c>
       <c r="M22">
-        <v>0.9004473111938632</v>
+        <v>0.9300288614906749</v>
       </c>
       <c r="N22">
-        <v>0.9609664629882768</v>
+        <v>0.9871411886404428</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9294776826168702</v>
+        <v>0.9552270841090525</v>
       </c>
       <c r="D23">
-        <v>0.9637316367065336</v>
+        <v>0.9840340845383074</v>
       </c>
       <c r="E23">
-        <v>0.9465317701432688</v>
+        <v>0.9695846915211072</v>
       </c>
       <c r="F23">
-        <v>0.8880917223038034</v>
+        <v>0.916332972662344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020305541138234</v>
+        <v>1.030546461366195</v>
       </c>
       <c r="J23">
-        <v>0.9629118283381992</v>
+        <v>0.9873539883504252</v>
       </c>
       <c r="K23">
-        <v>0.9797271201205984</v>
+        <v>0.9996082859994377</v>
       </c>
       <c r="L23">
-        <v>0.9629030043741802</v>
+        <v>0.9854563282257411</v>
       </c>
       <c r="M23">
-        <v>0.9058876451803188</v>
+        <v>0.9334098906491592</v>
       </c>
       <c r="N23">
-        <v>0.9642792735819697</v>
+        <v>0.9887561442649684</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9454134160166836</v>
+        <v>0.9645444753530877</v>
       </c>
       <c r="D24">
-        <v>0.9758761953900252</v>
+        <v>0.9910129663856267</v>
       </c>
       <c r="E24">
-        <v>0.9597051098042954</v>
+        <v>0.9769904035007295</v>
       </c>
       <c r="F24">
-        <v>0.9101465389273284</v>
+        <v>0.9308283348408661</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025777257421636</v>
+        <v>1.033427047741738</v>
       </c>
       <c r="J24">
-        <v>0.9751876673214874</v>
+        <v>0.9934791417922129</v>
       </c>
       <c r="K24">
-        <v>0.9903406237564665</v>
+        <v>1.00519976417566</v>
       </c>
       <c r="L24">
-        <v>0.9744788357798251</v>
+        <v>0.9914340128783026</v>
       </c>
       <c r="M24">
-        <v>0.9259594913889961</v>
+        <v>0.9461897825384507</v>
       </c>
       <c r="N24">
-        <v>0.9765725456646726</v>
+        <v>0.9948899961272083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.962285756874551</v>
+        <v>0.9747640973209749</v>
       </c>
       <c r="D25">
-        <v>0.9887670191171759</v>
+        <v>0.998674443727228</v>
       </c>
       <c r="E25">
-        <v>0.973705228432421</v>
+        <v>0.9851517023675401</v>
       </c>
       <c r="F25">
-        <v>0.9332674501249161</v>
+        <v>0.946573253437432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031495390661431</v>
+        <v>1.036513081525858</v>
       </c>
       <c r="J25">
-        <v>0.9881526068861103</v>
+        <v>1.000171654617529</v>
       </c>
       <c r="K25">
-        <v>1.00154225198644</v>
+        <v>1.011293372160497</v>
       </c>
       <c r="L25">
-        <v>0.9867259295333982</v>
+        <v>0.9979849769509164</v>
       </c>
       <c r="M25">
-        <v>0.9469982918642382</v>
+        <v>0.9600617299521291</v>
       </c>
       <c r="N25">
-        <v>0.989555896930577</v>
+        <v>1.001592013088379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9875353052270872</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.012138259480089</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163591</v>
+        <v>0.995749631488868</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030856</v>
+        <v>0.9637160805820022</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.042676256016604</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.010095334042777</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.023431040040614</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.00726850003002</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341594</v>
+        <v>0.9757051721026817</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007436023634761</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.027637808352613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614984</v>
+        <v>0.9916522682989919</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.01485139245696</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579195</v>
+        <v>0.9989882519451299</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517423</v>
+        <v>0.970559110291775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.043553455027543</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.012373117000827</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.025297709086215</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.009634094666059</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758045</v>
+        <v>0.9815830874646756</v>
       </c>
       <c r="N3">
-        <v>1.010156939155513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008194260140952</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.028955042293681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195583</v>
+        <v>0.9942600350078253</v>
       </c>
       <c r="D4">
-        <v>1.011070299086253</v>
+        <v>1.016570698753456</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651299</v>
+        <v>1.001045666582727</v>
       </c>
       <c r="F4">
-        <v>0.9717819212431742</v>
+        <v>0.9748789781430343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.044093603894985</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.01381171814151</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.026473160624146</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.011131487692422</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180402</v>
+        <v>0.985290355192707</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008673198934088</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.029787120682373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051577</v>
+        <v>0.9953455427844059</v>
       </c>
       <c r="D5">
-        <v>1.01212562712883</v>
+        <v>1.017288245525002</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302727</v>
+        <v>1.001903750582415</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984977</v>
+        <v>0.9766727425196966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.04431584188343</v>
       </c>
       <c r="J5">
-        <v>1.01184072632707</v>
+        <v>1.014410447864166</v>
       </c>
       <c r="K5">
-        <v>1.021858889915439</v>
+        <v>1.026962915957711</v>
       </c>
       <c r="L5">
-        <v>1.009463448819239</v>
+        <v>1.011755228302559</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835687</v>
+        <v>0.9868292032377868</v>
       </c>
       <c r="N5">
-        <v>1.013277656218208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008872809774518</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030140695920505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638145</v>
+        <v>0.9955296841787141</v>
       </c>
       <c r="D6">
-        <v>1.012301892626051</v>
+        <v>1.017412092333006</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531274</v>
+        <v>1.002049706579347</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095966</v>
+        <v>0.9769752613265955</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.044354741719397</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.014513066740229</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.027048522909179</v>
       </c>
       <c r="L6">
-        <v>1.009613709221018</v>
+        <v>1.01186187295314</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430911</v>
+        <v>0.9870890364357011</v>
       </c>
       <c r="N6">
-        <v>1.013430084040923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008907352920774</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030210090347159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675303</v>
+        <v>0.9942815959958262</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.016590580671706</v>
       </c>
       <c r="E7">
-        <v>0.9984618057437896</v>
+        <v>1.001063544827609</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164718</v>
+        <v>0.9749103707341447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648268</v>
+        <v>1.044101815567396</v>
       </c>
       <c r="J7">
-        <v>1.010941265014751</v>
+        <v>1.013826574236226</v>
       </c>
       <c r="K7">
-        <v>1.021047966961534</v>
+        <v>1.026489876505718</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.011146153570307</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>0.9853182372008178</v>
       </c>
       <c r="N7">
-        <v>1.012376917567656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008679050829905</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.02981932517439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741801</v>
+        <v>0.9889470909340916</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.01307521275893</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174415</v>
+        <v>0.9968600168793106</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938655</v>
+        <v>0.966060845180013</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.042984746377124</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.010880846155615</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.024080937495399</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.008082689898013</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096571</v>
+        <v>0.977721052638006</v>
       </c>
       <c r="N8">
-        <v>1.007844650518063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007698669986646</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.028120594325353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971293001004245</v>
+        <v>0.9790822575719828</v>
       </c>
       <c r="D9">
-        <v>0.996071763991459</v>
+        <v>1.006574536423382</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978807</v>
+        <v>0.9891348855164781</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004209</v>
+        <v>0.949564548591444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238293</v>
+        <v>1.040792252871271</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204217</v>
+        <v>1.005395931947635</v>
       </c>
       <c r="K9">
-        <v>1.009228897230331</v>
+        <v>1.01956183939725</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439175</v>
+        <v>1.002406736151965</v>
       </c>
       <c r="M9">
-        <v>0.955365991636234</v>
+        <v>0.96353258338284</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005872183873592</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024921966323016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381081</v>
+        <v>0.9721669233066088</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087694</v>
+        <v>1.002029301463826</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053354</v>
+        <v>0.9837560600827133</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751212</v>
+        <v>0.937872331445088</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.039177913918425</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211591</v>
+        <v>1.001530072959228</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.016362012656243</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083569</v>
+        <v>0.9984249311758783</v>
       </c>
       <c r="M10">
-        <v>0.9427205439410544</v>
+        <v>0.9534618673476727</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004585748266517</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022676503659081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802987</v>
+        <v>0.9690906390230953</v>
       </c>
       <c r="D11">
-        <v>0.9859787674879061</v>
+        <v>1.000016572098062</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617427</v>
+        <v>0.9813736691688624</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>0.9326276906233761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.038445655050476</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215813</v>
+        <v>0.9998083168771431</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.014938175900321</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121927</v>
+        <v>0.9966556121503423</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>0.9489427437990737</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004014336553563</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02170318058941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569112</v>
+        <v>0.967929322596443</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908841</v>
+        <v>0.9992539707881732</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495041</v>
+        <v>0.9804750786130533</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441658</v>
+        <v>0.9306439078203258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966337</v>
+        <v>1.038164496917465</v>
       </c>
       <c r="J12">
-        <v>0.9880245516496368</v>
+        <v>0.9991558407370605</v>
       </c>
       <c r="K12">
-        <v>1.000220960442636</v>
+        <v>1.014395477510588</v>
       </c>
       <c r="L12">
-        <v>0.986109957571913</v>
+        <v>0.9959861552266506</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080458</v>
+        <v>0.9472324757239844</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003797078785079</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021319461971987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171189001</v>
+        <v>0.9681782408700078</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976559</v>
+        <v>0.9994167543958852</v>
       </c>
       <c r="E13">
-        <v>0.9706623646218396</v>
+        <v>0.9806674877003293</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080867</v>
+        <v>0.9310699577000693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.038224475514669</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621969</v>
+        <v>0.9992953946740243</v>
       </c>
       <c r="K13">
-        <v>1.00042533377417</v>
+        <v>1.014511065505811</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681103</v>
+        <v>0.9961293682792647</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387607</v>
+        <v>0.9475996928575027</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003843397538947</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021398650197186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213367</v>
+        <v>0.9689945774518803</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008237</v>
+        <v>0.9999532019370418</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130094</v>
+        <v>0.9812992545391288</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989572</v>
+        <v>0.9324639633414343</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.03842227841275</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805954</v>
+        <v>0.9997542180652066</v>
       </c>
       <c r="K14">
-        <v>1.001091942576439</v>
+        <v>1.014892970874572</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611919</v>
+        <v>0.9966001166871772</v>
       </c>
       <c r="M14">
-        <v>0.936807589073678</v>
+        <v>0.9488015518691735</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003996259595156</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021670130462279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617716</v>
+        <v>0.9694973215708305</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774562</v>
+        <v>1.000284948777907</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079771</v>
+        <v>0.981688780392362</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830521</v>
+        <v>0.9333205066180064</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.038544559378027</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881455</v>
+        <v>1.000037352680894</v>
       </c>
       <c r="K15">
-        <v>1.001500362012316</v>
+        <v>1.015129595649912</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991536</v>
+        <v>0.9968905827264501</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191174</v>
+        <v>0.9495401983684688</v>
       </c>
       <c r="N15">
-        <v>0.9908303643559332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004090883907603</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.021843417336714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222424</v>
+        <v>0.9723839032200735</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196461</v>
+        <v>1.002182707328431</v>
       </c>
       <c r="E16">
-        <v>0.975187073361757</v>
+        <v>0.9839265150715824</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761479</v>
+        <v>0.9382321352078838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871167</v>
+        <v>1.039236313131303</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439669</v>
+        <v>1.001657277361727</v>
       </c>
       <c r="K16">
-        <v>1.003843342092468</v>
+        <v>1.016476101607553</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897206</v>
+        <v>0.9985546236207766</v>
       </c>
       <c r="M16">
-        <v>0.9430953416749988</v>
+        <v>0.9537737091426546</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004630456963983</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.02279869858749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271932</v>
+        <v>0.9741699465041149</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.003357856844501</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.9853135456359994</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011882</v>
+        <v>0.9412604269739168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.039659667594898</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211854</v>
+        <v>1.002658246404452</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.017307265712997</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687027</v>
+        <v>0.9995840768557992</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538027</v>
+        <v>0.9563832114152472</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004963895390628</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023389011799672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280605</v>
+        <v>0.9751985205386856</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049614</v>
+        <v>1.004031389695195</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574112</v>
+        <v>0.9861125236527419</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>0.9430036468414709</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166508</v>
+        <v>1.039899547300473</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126977</v>
+        <v>1.00323238828392</v>
       </c>
       <c r="K18">
-        <v>1.006113961932079</v>
+        <v>1.017780897054339</v>
       </c>
       <c r="L18">
-        <v>0.992414207565242</v>
+        <v>1.000175357566067</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167779</v>
+        <v>0.957884507895345</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005154410356131</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.023712055104666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997952</v>
+        <v>0.9755513378683154</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358435</v>
+        <v>1.004265210368495</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378093</v>
+        <v>0.9863872499701832</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750281</v>
+        <v>0.94359881992954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034037246457919</v>
+        <v>1.039983271490251</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017186</v>
+        <v>1.003430661978953</v>
       </c>
       <c r="K19">
-        <v>1.006395313078344</v>
+        <v>1.017946574107332</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636588</v>
+        <v>1.000379338136522</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783038</v>
+        <v>0.9583974854201949</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005220788133734</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023835700899375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9644285249200526</v>
+        <v>0.9739788639241801</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895056</v>
+        <v>1.003231826223464</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497805</v>
+        <v>0.9851650094511265</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>0.9409370395440674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.039614378252111</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555701</v>
+        <v>1.002551065560953</v>
       </c>
       <c r="K20">
-        <v>1.005130373846601</v>
+        <v>1.017218084915047</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331054</v>
+        <v>0.9994738283855857</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>0.9561045286089721</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004928131956711</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.023324597255959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397773</v>
+        <v>0.9687593646315835</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234938</v>
+        <v>0.9998022494247761</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662839</v>
+        <v>0.9811179134776665</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>0.9320595231959886</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.038367619845612</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122536</v>
+        <v>0.9996239099426252</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.014787369220341</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459169</v>
+        <v>0.9964660657269986</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>0.948453464196394</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003953674290005</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021609225460088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758582</v>
+        <v>0.9653883024473244</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882441</v>
+        <v>0.997586088079889</v>
       </c>
       <c r="E22">
-        <v>0.9676442740847894</v>
+        <v>0.9785115269848464</v>
       </c>
       <c r="F22">
-        <v>0.912498990443454</v>
+        <v>0.9262904396324514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361483</v>
+        <v>1.037544294464013</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958208</v>
+        <v>0.9977265592022178</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220371</v>
+        <v>1.013205517190327</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772861</v>
+        <v>0.9945210416632936</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906749</v>
+        <v>0.9434785875294839</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003321105612498</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.020477001600923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090525</v>
+        <v>0.9671778617302503</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>0.9987578754897783</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211072</v>
+        <v>0.9798934623893433</v>
       </c>
       <c r="F23">
-        <v>0.916332972662344</v>
+        <v>0.9293605659578521</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.037980086097336</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>0.9987319729322133</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994377</v>
+        <v>1.014040596264145</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257411</v>
+        <v>0.9955517148194684</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491592</v>
+        <v>0.9461255209966956</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003655298142479</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021057645147155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9645444753530877</v>
+        <v>0.9740556177406476</v>
       </c>
       <c r="D24">
-        <v>0.9910129663856267</v>
+        <v>1.003275060823162</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007295</v>
+        <v>0.9852232603964934</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408661</v>
+        <v>0.9410728763332801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.039627909182732</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922129</v>
+        <v>1.002590296327316</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.01724490579641</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783026</v>
+        <v>0.999514938467552</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384507</v>
+        <v>0.9562203712961603</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004939640207245</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023315687215113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209749</v>
+        <v>0.981700273773647</v>
       </c>
       <c r="D25">
-        <v>0.998674443727228</v>
+        <v>1.00830643054487</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675401</v>
+        <v>0.9911804183316492</v>
       </c>
       <c r="F25">
-        <v>0.946573253437432</v>
+        <v>0.9539554112209471</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525858</v>
+        <v>1.04139315119592</v>
       </c>
       <c r="J25">
-        <v>1.000171654617529</v>
+        <v>1.00685959078942</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.020777153981879</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509164</v>
+        <v>1.003917207450451</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521291</v>
+        <v>0.9673131999373066</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.006361084214116</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.025810335546557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9875353052270872</v>
+        <v>0.9884221622200666</v>
       </c>
       <c r="D2">
-        <v>1.012138259480089</v>
+        <v>1.012877322838726</v>
       </c>
       <c r="E2">
-        <v>0.995749631488868</v>
+        <v>0.9965141134849751</v>
       </c>
       <c r="F2">
-        <v>0.9637160805820022</v>
+        <v>0.9646517342067575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042676256016604</v>
+        <v>1.043051329460603</v>
       </c>
       <c r="J2">
-        <v>1.010095334042777</v>
+        <v>1.010954766332047</v>
       </c>
       <c r="K2">
-        <v>1.023431040040614</v>
+        <v>1.024160124518153</v>
       </c>
       <c r="L2">
-        <v>1.00726850003002</v>
+        <v>1.008022226825977</v>
       </c>
       <c r="M2">
-        <v>0.9757051721026817</v>
+        <v>0.9766265266808881</v>
       </c>
       <c r="N2">
-        <v>1.007436023634761</v>
+        <v>1.010217892795253</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.027637808352613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.028162250145005</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018634045190761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916522682989919</v>
+        <v>0.9923736232318889</v>
       </c>
       <c r="D3">
-        <v>1.01485139245696</v>
+        <v>1.015379565799285</v>
       </c>
       <c r="E3">
-        <v>0.9989882519451299</v>
+        <v>0.9996104363850298</v>
       </c>
       <c r="F3">
-        <v>0.970559110291775</v>
+        <v>0.971316148594642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043553455027543</v>
+        <v>1.0438217926</v>
       </c>
       <c r="J3">
-        <v>1.012373117000827</v>
+        <v>1.013074372342742</v>
       </c>
       <c r="K3">
-        <v>1.025297709086215</v>
+        <v>1.025819372558533</v>
       </c>
       <c r="L3">
-        <v>1.009634094666059</v>
+        <v>1.010248304178231</v>
       </c>
       <c r="M3">
-        <v>0.9815830874646756</v>
+        <v>0.9823296950262086</v>
       </c>
       <c r="N3">
-        <v>1.008194260140952</v>
+        <v>1.010779534194812</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.028955042293681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029332533160963</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018970669384551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,93 +551,111 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9942600350078253</v>
+        <v>0.9948780537977266</v>
       </c>
       <c r="D4">
-        <v>1.016570698753456</v>
+        <v>1.016966390128854</v>
       </c>
       <c r="E4">
-        <v>1.001045666582727</v>
+        <v>1.001578827662427</v>
       </c>
       <c r="F4">
-        <v>0.9748789781430343</v>
+        <v>0.9755254960836486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044093603894985</v>
+        <v>1.044294777158769</v>
       </c>
       <c r="J4">
-        <v>1.01381171814151</v>
+        <v>1.01441369319316</v>
       </c>
       <c r="K4">
-        <v>1.026473160624146</v>
+        <v>1.02686426908959</v>
       </c>
       <c r="L4">
-        <v>1.011131487692422</v>
+        <v>1.011658234901913</v>
       </c>
       <c r="M4">
-        <v>0.985290355192707</v>
+        <v>0.9859285664004852</v>
       </c>
       <c r="N4">
-        <v>1.008673198934088</v>
+        <v>1.011134487690237</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.029787120682373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03007237367564</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.0191798138796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9953455427844059</v>
+        <v>0.9959209314220341</v>
       </c>
       <c r="D5">
-        <v>1.017288245525002</v>
+        <v>1.017629143372956</v>
       </c>
       <c r="E5">
-        <v>1.001903750582415</v>
+        <v>1.002400146695302</v>
       </c>
       <c r="F5">
-        <v>0.9766727425196966</v>
+        <v>0.9772738836606448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04431584188343</v>
+        <v>1.044489209835513</v>
       </c>
       <c r="J5">
-        <v>1.014410447864166</v>
+        <v>1.014971349936613</v>
       </c>
       <c r="K5">
-        <v>1.026962915957711</v>
+        <v>1.027299970616886</v>
       </c>
       <c r="L5">
-        <v>1.011755228302559</v>
+        <v>1.012245814750165</v>
       </c>
       <c r="M5">
-        <v>0.9868292032377868</v>
+        <v>0.9874228499039069</v>
       </c>
       <c r="N5">
-        <v>1.008872809774518</v>
+        <v>1.011282507763685</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030140695920505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030388435489375</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019266599915349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955296841787141</v>
+        <v>0.9960979190226359</v>
       </c>
       <c r="D6">
-        <v>1.017412092333006</v>
+        <v>1.01774383283581</v>
       </c>
       <c r="E6">
-        <v>1.002049706579347</v>
+        <v>1.00253992890492</v>
       </c>
       <c r="F6">
-        <v>0.9769752613265955</v>
+        <v>0.9775688005444433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044354741719397</v>
+        <v>1.044523461167071</v>
       </c>
       <c r="J6">
-        <v>1.014513066740229</v>
+        <v>1.015067069357346</v>
       </c>
       <c r="K6">
-        <v>1.027048522909179</v>
+        <v>1.027376540586961</v>
       </c>
       <c r="L6">
-        <v>1.01186187295314</v>
+        <v>1.012346384611112</v>
       </c>
       <c r="M6">
-        <v>0.9870890364357011</v>
+        <v>0.9876752136809253</v>
       </c>
       <c r="N6">
-        <v>1.008907352920774</v>
+        <v>1.011308173679101</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030210090347159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030452306805183</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019282137411466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9942815959958262</v>
+        <v>0.9949066190458813</v>
       </c>
       <c r="D7">
-        <v>1.016590580671706</v>
+        <v>1.016990627316668</v>
       </c>
       <c r="E7">
-        <v>1.001063544827609</v>
+        <v>1.001602941469071</v>
       </c>
       <c r="F7">
-        <v>0.9749103707341447</v>
+        <v>0.9755642036374806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044101815567396</v>
+        <v>1.04430520398413</v>
       </c>
       <c r="J7">
-        <v>1.013826574236226</v>
+        <v>1.014435378775845</v>
       </c>
       <c r="K7">
-        <v>1.026489876505718</v>
+        <v>1.026885291596648</v>
       </c>
       <c r="L7">
-        <v>1.011146153570307</v>
+        <v>1.011679063846664</v>
       </c>
       <c r="M7">
-        <v>0.9853182372008178</v>
+        <v>0.9859636729846125</v>
       </c>
       <c r="N7">
-        <v>1.008679050829905</v>
+        <v>1.01116689819518</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.02981932517439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030109618393378</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019185265841897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889470909340916</v>
+        <v>0.9898007587956783</v>
       </c>
       <c r="D8">
-        <v>1.01307521275893</v>
+        <v>1.013757893680296</v>
       </c>
       <c r="E8">
-        <v>0.9968600168793106</v>
+        <v>0.9975966897127867</v>
       </c>
       <c r="F8">
-        <v>0.966060845180013</v>
+        <v>0.9669598332202362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042984746377124</v>
+        <v>1.043331332201608</v>
       </c>
       <c r="J8">
-        <v>1.010880846155615</v>
+        <v>1.011709013681451</v>
       </c>
       <c r="K8">
-        <v>1.024080937495399</v>
+        <v>1.024754675409646</v>
       </c>
       <c r="L8">
-        <v>1.008082689898013</v>
+        <v>1.008809314078915</v>
       </c>
       <c r="M8">
-        <v>0.977721052638006</v>
+        <v>0.9786067681212027</v>
       </c>
       <c r="N8">
-        <v>1.007698669986646</v>
+        <v>1.010497561519102</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.028120594325353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028608159843462</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01875740997524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9790822575719828</v>
+        <v>0.9803456527598541</v>
       </c>
       <c r="D9">
-        <v>1.006574536423382</v>
+        <v>1.007771496976886</v>
       </c>
       <c r="E9">
-        <v>0.9891348855164781</v>
+        <v>0.9902227089994234</v>
       </c>
       <c r="F9">
-        <v>0.949564548591444</v>
+        <v>0.9509132250402068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040792252871271</v>
+        <v>1.041398439538746</v>
       </c>
       <c r="J9">
-        <v>1.005395931947635</v>
+        <v>1.00661207140532</v>
       </c>
       <c r="K9">
-        <v>1.01956183939725</v>
+        <v>1.020739732968946</v>
       </c>
       <c r="L9">
-        <v>1.002406736151965</v>
+        <v>1.003476433090119</v>
       </c>
       <c r="M9">
-        <v>0.96353258338284</v>
+        <v>0.9648562884958936</v>
       </c>
       <c r="N9">
-        <v>1.005872183873592</v>
+        <v>1.009156214021661</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024921966323016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025765754964304</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017925914954777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9721669233066088</v>
+        <v>0.9737633137015587</v>
       </c>
       <c r="D10">
-        <v>1.002029301463826</v>
+        <v>1.003617553027478</v>
       </c>
       <c r="E10">
-        <v>0.9837560600827133</v>
+        <v>0.985128909709187</v>
       </c>
       <c r="F10">
-        <v>0.937872331445088</v>
+        <v>0.9395946690306023</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039177913918425</v>
+        <v>1.039980982707265</v>
       </c>
       <c r="J10">
-        <v>1.001530072959228</v>
+        <v>1.003057994157614</v>
       </c>
       <c r="K10">
-        <v>1.016362012656243</v>
+        <v>1.01792179718721</v>
       </c>
       <c r="L10">
-        <v>0.9984249311758783</v>
+        <v>0.99977195963537</v>
       </c>
       <c r="M10">
-        <v>0.9534618673476727</v>
+        <v>0.9551474938425888</v>
       </c>
       <c r="N10">
-        <v>1.004585748266517</v>
+        <v>1.008332689163183</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022676503659081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02379201184334</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017329148722955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9690906390230953</v>
+        <v>0.9708946540905483</v>
       </c>
       <c r="D11">
-        <v>1.000016572098062</v>
+        <v>1.001818814386348</v>
       </c>
       <c r="E11">
-        <v>0.9813736691688624</v>
+        <v>0.982925727720028</v>
       </c>
       <c r="F11">
-        <v>0.9326276906233761</v>
+        <v>0.9345838702109102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038445655050476</v>
+        <v>1.039356303166709</v>
       </c>
       <c r="J11">
-        <v>0.9998083168771431</v>
+        <v>1.00153045849132</v>
       </c>
       <c r="K11">
-        <v>1.014938175900321</v>
+        <v>1.01670651185102</v>
       </c>
       <c r="L11">
-        <v>0.9966556121503423</v>
+        <v>0.9981769866594877</v>
       </c>
       <c r="M11">
-        <v>0.9489427437990737</v>
+        <v>0.9508546958434944</v>
       </c>
       <c r="N11">
-        <v>1.004014336553563</v>
+        <v>1.008159397652499</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02170318058941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022969363581302</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017071372930525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.967929322596443</v>
+        <v>0.9698173605468186</v>
       </c>
       <c r="D12">
-        <v>0.9992539707881732</v>
+        <v>1.001140615908243</v>
       </c>
       <c r="E12">
-        <v>0.9804750786130533</v>
+        <v>0.9820997810423163</v>
       </c>
       <c r="F12">
-        <v>0.9306439078203258</v>
+        <v>0.9326951920286426</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038164496917465</v>
+        <v>1.039117552116154</v>
       </c>
       <c r="J12">
-        <v>0.9991558407370605</v>
+        <v>1.000956405620657</v>
       </c>
       <c r="K12">
-        <v>1.014395477510588</v>
+        <v>1.016245996094659</v>
       </c>
       <c r="L12">
-        <v>0.9959861552266506</v>
+        <v>0.9975781483523098</v>
       </c>
       <c r="M12">
-        <v>0.9472324757239844</v>
+        <v>0.9492363668803873</v>
       </c>
       <c r="N12">
-        <v>1.003797078785079</v>
+        <v>1.008109943884628</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021319461971987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022643760909746</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016972942654663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9681782408700078</v>
+        <v>0.9700480099649978</v>
       </c>
       <c r="D13">
-        <v>0.9994167543958852</v>
+        <v>1.001285104551173</v>
       </c>
       <c r="E13">
-        <v>0.9806674877003293</v>
+        <v>0.9822763966890169</v>
       </c>
       <c r="F13">
-        <v>0.9310699577000693</v>
+        <v>0.9331005374738562</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038224475514669</v>
+        <v>1.039168339835876</v>
       </c>
       <c r="J13">
-        <v>0.9992953946740243</v>
+        <v>1.001078918013974</v>
       </c>
       <c r="K13">
-        <v>1.014511065505811</v>
+        <v>1.016343774020122</v>
       </c>
       <c r="L13">
-        <v>0.9961293682792647</v>
+        <v>0.9977060113859315</v>
       </c>
       <c r="M13">
-        <v>0.9475996928575027</v>
+        <v>0.9495835747183023</v>
       </c>
       <c r="N13">
-        <v>1.003843397538947</v>
+        <v>1.00811959122869</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021398650197186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022710113331055</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016993776849527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9689945774518803</v>
+        <v>0.9708054233174706</v>
       </c>
       <c r="D14">
-        <v>0.9999532019370418</v>
+        <v>1.001762332932329</v>
       </c>
       <c r="E14">
-        <v>0.9812992545391288</v>
+        <v>0.9828572190854979</v>
       </c>
       <c r="F14">
-        <v>0.9324639633414343</v>
+        <v>0.9344278633590157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03842227841275</v>
+        <v>1.039336388189561</v>
       </c>
       <c r="J14">
-        <v>0.9997542180652066</v>
+        <v>1.00148273948335</v>
       </c>
       <c r="K14">
-        <v>1.014892970874572</v>
+        <v>1.01666801592951</v>
       </c>
       <c r="L14">
-        <v>0.9966001166871772</v>
+        <v>0.9981272338786301</v>
       </c>
       <c r="M14">
-        <v>0.9488015518691735</v>
+        <v>0.9507209699659371</v>
       </c>
       <c r="N14">
-        <v>1.003996259595156</v>
+        <v>1.008154873702223</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021670130462279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.022940954423987</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017063117021863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9694973215708305</v>
+        <v>0.9712726473748375</v>
       </c>
       <c r="D15">
-        <v>1.000284948777907</v>
+        <v>1.002058184127336</v>
       </c>
       <c r="E15">
-        <v>0.981688780392362</v>
+        <v>0.9832160374956175</v>
       </c>
       <c r="F15">
-        <v>0.9333205066180064</v>
+        <v>0.935244280970529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038544559378027</v>
+        <v>1.039440630126661</v>
       </c>
       <c r="J15">
-        <v>1.000037352680894</v>
+        <v>1.00173269155878</v>
       </c>
       <c r="K15">
-        <v>1.015129595649912</v>
+        <v>1.01686967782159</v>
       </c>
       <c r="L15">
-        <v>0.9968905827264501</v>
+        <v>0.9983878392182062</v>
       </c>
       <c r="M15">
-        <v>0.9495401983684688</v>
+        <v>0.9514208081843023</v>
       </c>
       <c r="N15">
-        <v>1.004090883907603</v>
+        <v>1.008179248779052</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.021843417336714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023090085529393</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01710636177869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9723839032200735</v>
+        <v>0.9739670412798975</v>
       </c>
       <c r="D16">
-        <v>1.002182707328431</v>
+        <v>1.003757323466568</v>
       </c>
       <c r="E16">
-        <v>0.9839265150715824</v>
+        <v>0.9852878799579683</v>
       </c>
       <c r="F16">
-        <v>0.9382321352078838</v>
+        <v>0.9399396146144399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039236313131303</v>
+        <v>1.040032524325542</v>
       </c>
       <c r="J16">
-        <v>1.001657277361727</v>
+        <v>1.003172775390727</v>
       </c>
       <c r="K16">
-        <v>1.016476101607553</v>
+        <v>1.018022588705923</v>
       </c>
       <c r="L16">
-        <v>0.9985546236207766</v>
+        <v>0.9998904701457425</v>
       </c>
       <c r="M16">
-        <v>0.9537737091426546</v>
+        <v>0.9554449392689549</v>
       </c>
       <c r="N16">
-        <v>1.004630456963983</v>
+        <v>1.008352305225116</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02279869858749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.023908772440217</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017351971280591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9741699465041149</v>
+        <v>0.9756460327609475</v>
       </c>
       <c r="D17">
-        <v>1.003357856844501</v>
+        <v>1.004817491134844</v>
       </c>
       <c r="E17">
-        <v>0.9853135456359994</v>
+        <v>0.9865827050113003</v>
       </c>
       <c r="F17">
-        <v>0.9412604269739168</v>
+        <v>0.9428479631802669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039659667594898</v>
+        <v>1.040398035434192</v>
       </c>
       <c r="J17">
-        <v>1.002658246404452</v>
+        <v>1.004073374730115</v>
       </c>
       <c r="K17">
-        <v>1.017307265712997</v>
+        <v>1.018741576264943</v>
       </c>
       <c r="L17">
-        <v>0.9995840768557992</v>
+        <v>1.000830150246576</v>
       </c>
       <c r="M17">
-        <v>0.9563832114152472</v>
+        <v>0.9579382105671093</v>
       </c>
       <c r="N17">
-        <v>1.004963895390628</v>
+        <v>1.008496058018075</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023389011799672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024420010415196</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017504662900919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9751985205386856</v>
+        <v>0.9766174815147152</v>
       </c>
       <c r="D18">
-        <v>1.004031389695195</v>
+        <v>1.00542765920793</v>
       </c>
       <c r="E18">
-        <v>0.9861125236527419</v>
+        <v>0.9873325805720443</v>
       </c>
       <c r="F18">
-        <v>0.9430036468414709</v>
+        <v>0.9445273027504389</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039899547300473</v>
+        <v>1.040606028111591</v>
       </c>
       <c r="J18">
-        <v>1.00323238828392</v>
+        <v>1.004593915476161</v>
       </c>
       <c r="K18">
-        <v>1.017780897054339</v>
+        <v>1.019153357292033</v>
       </c>
       <c r="L18">
-        <v>1.000175357566067</v>
+        <v>1.001373612309215</v>
       </c>
       <c r="M18">
-        <v>0.957884507895345</v>
+        <v>0.9593775761612756</v>
       </c>
       <c r="N18">
-        <v>1.005154410356131</v>
+        <v>1.008592208136205</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.023712055104666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.024698186330198</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017591494051272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755513378683154</v>
+        <v>0.9769516041964981</v>
       </c>
       <c r="D19">
-        <v>1.004265210368495</v>
+        <v>1.00564046927568</v>
       </c>
       <c r="E19">
-        <v>0.9863872499701832</v>
+        <v>0.9875912426527329</v>
       </c>
       <c r="F19">
-        <v>0.94359881992954</v>
+        <v>0.9451015903911375</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039983271490251</v>
+        <v>1.040679177608319</v>
       </c>
       <c r="J19">
-        <v>1.003430661978953</v>
+        <v>1.004774641110947</v>
       </c>
       <c r="K19">
-        <v>1.017946574107332</v>
+        <v>1.019298521134137</v>
       </c>
       <c r="L19">
-        <v>1.000379338136522</v>
+        <v>1.001561946693989</v>
       </c>
       <c r="M19">
-        <v>0.9583974854201949</v>
+        <v>0.9598703011555556</v>
       </c>
       <c r="N19">
-        <v>1.005220788133734</v>
+        <v>1.00862877408111</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023835700899375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02480794674289</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017622445408785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9739788639241801</v>
+        <v>0.9754659176435587</v>
       </c>
       <c r="D20">
-        <v>1.003231826223464</v>
+        <v>1.004703426041054</v>
       </c>
       <c r="E20">
-        <v>0.9851650094511265</v>
+        <v>0.9864436077587331</v>
       </c>
       <c r="F20">
-        <v>0.9409370395440674</v>
+        <v>0.9425368482868004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039614378252111</v>
+        <v>1.040358766662297</v>
       </c>
       <c r="J20">
-        <v>1.002551065560953</v>
+        <v>1.003976482266396</v>
       </c>
       <c r="K20">
-        <v>1.017218084915047</v>
+        <v>1.018664072502867</v>
       </c>
       <c r="L20">
-        <v>0.9994738283855857</v>
+        <v>1.000729093321905</v>
       </c>
       <c r="M20">
-        <v>0.9561045286089721</v>
+        <v>0.9576714240071359</v>
       </c>
       <c r="N20">
-        <v>1.004928131956711</v>
+        <v>1.008479078896298</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.023324597255959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024363723948337</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017488184028761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9687593646315835</v>
+        <v>0.9706065483531346</v>
       </c>
       <c r="D21">
-        <v>0.9998022494247761</v>
+        <v>1.001641529589121</v>
       </c>
       <c r="E21">
-        <v>0.9811179134776665</v>
+        <v>0.9827078030153332</v>
       </c>
       <c r="F21">
-        <v>0.9320595231959886</v>
+        <v>0.9340636273403106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038367619845612</v>
+        <v>1.039296915260185</v>
       </c>
       <c r="J21">
-        <v>0.9996239099426252</v>
+        <v>1.001386760328408</v>
       </c>
       <c r="K21">
-        <v>1.014787369220341</v>
+        <v>1.016591869283399</v>
       </c>
       <c r="L21">
-        <v>0.9964660657269986</v>
+        <v>0.9980243578727248</v>
       </c>
       <c r="M21">
-        <v>0.948453464196394</v>
+        <v>0.9504119735203674</v>
       </c>
       <c r="N21">
-        <v>1.003953674290005</v>
+        <v>1.00821235494253</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021609225460088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022902183484798</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017048063153857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9653883024473244</v>
+        <v>0.9674685533967667</v>
       </c>
       <c r="D22">
-        <v>0.997586088079889</v>
+        <v>0.9996630292544196</v>
       </c>
       <c r="E22">
-        <v>0.9785115269848464</v>
+        <v>0.9803025725735237</v>
       </c>
       <c r="F22">
-        <v>0.9262904396324514</v>
+        <v>0.9285604489106764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037544294464013</v>
+        <v>1.038592908585263</v>
       </c>
       <c r="J22">
-        <v>0.9977265592022178</v>
+        <v>0.9997060962164098</v>
       </c>
       <c r="K22">
-        <v>1.013205517190327</v>
+        <v>1.015241164557981</v>
       </c>
       <c r="L22">
-        <v>0.9945210416632936</v>
+        <v>0.9962746056723328</v>
       </c>
       <c r="M22">
-        <v>0.9434785875294839</v>
+        <v>0.9456936574202586</v>
       </c>
       <c r="N22">
-        <v>1.003321105612498</v>
+        <v>1.008025470733876</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020477001600923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021932112033524</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016757447367347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9671778617302503</v>
+        <v>0.9691215337028136</v>
       </c>
       <c r="D23">
-        <v>0.9987578754897783</v>
+        <v>1.000699856026721</v>
       </c>
       <c r="E23">
-        <v>0.9798934623893433</v>
+        <v>0.9815663144622662</v>
       </c>
       <c r="F23">
-        <v>0.9293605659578521</v>
+        <v>0.9314749816293338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037980086097336</v>
+        <v>1.038960936035001</v>
       </c>
       <c r="J23">
-        <v>0.9987319729322133</v>
+        <v>1.000584404992586</v>
       </c>
       <c r="K23">
-        <v>1.014040596264145</v>
+        <v>1.015944971006491</v>
       </c>
       <c r="L23">
-        <v>0.9955517148194684</v>
+        <v>0.9971904969730679</v>
       </c>
       <c r="M23">
-        <v>0.9461255209966956</v>
+        <v>0.9481904057126626</v>
       </c>
       <c r="N23">
-        <v>1.003655298142479</v>
+        <v>1.008080741030428</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021057645147155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022418993159256</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016908156848346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740556177406476</v>
+        <v>0.9755380107465129</v>
       </c>
       <c r="D24">
-        <v>1.003275060823162</v>
+        <v>1.004741343761596</v>
       </c>
       <c r="E24">
-        <v>0.9852232603964934</v>
+        <v>0.9864978812949</v>
       </c>
       <c r="F24">
-        <v>0.9410728763332801</v>
+        <v>0.9426674594541941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039627909182732</v>
+        <v>1.040369622220338</v>
       </c>
       <c r="J24">
-        <v>1.002590296327316</v>
+        <v>1.004011345733143</v>
       </c>
       <c r="K24">
-        <v>1.01724490579641</v>
+        <v>1.018685704576681</v>
       </c>
       <c r="L24">
-        <v>0.999514938467552</v>
+        <v>1.000766332151979</v>
       </c>
       <c r="M24">
-        <v>0.9562203712961603</v>
+        <v>0.9577822038759791</v>
       </c>
       <c r="N24">
-        <v>1.004939640207245</v>
+        <v>1.008483137752104</v>
       </c>
       <c r="Q24">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R24">
-        <v>1.023315687215113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024348481769291</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017491815655987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.981700273773647</v>
+        <v>0.982843997539673</v>
       </c>
       <c r="D25">
-        <v>1.00830643054487</v>
+        <v>1.009359934041007</v>
       </c>
       <c r="E25">
-        <v>0.9911804183316492</v>
+        <v>0.9921655725687236</v>
       </c>
       <c r="F25">
-        <v>0.9539554112209471</v>
+        <v>0.9551717509145066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04139315119592</v>
+        <v>1.041927020669341</v>
       </c>
       <c r="J25">
-        <v>1.00685959078942</v>
+        <v>1.00796285236182</v>
       </c>
       <c r="K25">
-        <v>1.020777153981879</v>
+        <v>1.021814666159637</v>
       </c>
       <c r="L25">
-        <v>1.003917207450451</v>
+        <v>1.004886737716403</v>
       </c>
       <c r="M25">
-        <v>0.9673131999373066</v>
+        <v>0.9685082575846724</v>
       </c>
       <c r="N25">
-        <v>1.006361084214116</v>
+        <v>1.009482297149205</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.025810335546557</v>
+        <v>1.026557652456223</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018151843617935</v>
       </c>
     </row>
   </sheetData>
